--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -1,26 +1,190 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Structure" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailConfirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AccessFailedCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Roles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserRoleRel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin operation table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleType(#9#,#19#)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -44,14 +208,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +515,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Structure.xlsx
+++ b/Structure.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
+    <sheet name="Note" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>User</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,7 +73,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserRoleRel</t>
+    <t>UserLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginRegion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginIp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmailCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Article</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleType(#9#,#19#)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PictureId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Path</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Picture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,75 +173,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>CrUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StuffId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockTypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LockType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到详细页的时候，判断是不是lock或者delete，以防止直接访问当前页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Favorite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>RoleId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserLogin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginRegion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginIp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmailCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Admin operation table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Article</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArticleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contents</t>
+    <t>CrUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Letter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LetterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRead</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArticleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrUserId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SystemLetter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LetterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理员操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsDelete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Follow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FollowDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blacklist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CrDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CrUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UpUserId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArticleType(#9#,#19#)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,164 +725,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F35" sqref="F34:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -681,4 +1076,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>